--- a/STATEMENT_FOR_THE_MONTH_OF_DEC_23_01to15_SVT_BALA.xlsx
+++ b/STATEMENT_FOR_THE_MONTH_OF_DEC_23_01to15_SVT_BALA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fisglobal-my.sharepoint.com/personal/hemalatha_jayabalan_fisglobal_com/Documents/e3024537_Backup/D_Drive/Hema's/SVT/Laxmi_Stmt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e3024537\OneDrive - FIS\e3024537_Backup\D_Drive\Hema's\SVT\Laxmi_Stmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4472" documentId="13_ncr:1_{91DA8E27-5ACF-4380-87CC-50BBBF04FE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5AC27BC-873B-4AD1-9B10-AE2C988538EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA66950-9025-4E5F-8CFE-5789BC39F58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="158">
   <si>
     <t>SL</t>
   </si>
@@ -484,9 +484,6 @@
     <t>Mr V Padmanaban</t>
   </si>
   <si>
-    <t>11hrs</t>
-  </si>
-  <si>
     <t>Mr Nilesh Kumar Dhakar</t>
   </si>
   <si>
@@ -517,7 +514,7 @@
     <t>Rs.1800</t>
   </si>
   <si>
-    <t>Rupees One Lakh Sixty Eight Thousand One Hundred Eighty Six</t>
+    <t>Rupees One Lakh Sixty Seven Thousand Eight Hundred Sixty Six</t>
   </si>
 </sst>
 </file>
@@ -775,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -947,48 +944,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1298,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:V2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2121,7 +2076,7 @@
       <c r="T16" s="33">
         <v>500</v>
       </c>
-      <c r="U16" s="69">
+      <c r="U16" s="32">
         <v>0</v>
       </c>
       <c r="V16" s="29">
@@ -2188,61 +2143,61 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="2:22" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="58">
+    <row r="18" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
         <v>13</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="31">
         <v>45270</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="31">
         <v>45270</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="32">
         <v>321297</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="32">
         <v>321330</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="33">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="K18" s="70" t="s">
+      <c r="K18" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="69" t="s">
+      <c r="M18" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70" t="s">
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="S18" s="70">
+      <c r="S18" s="33">
         <v>1000</v>
       </c>
-      <c r="T18" s="70">
-        <v>0</v>
-      </c>
-      <c r="U18" s="69">
-        <v>0</v>
-      </c>
-      <c r="V18" s="71">
+      <c r="T18" s="33">
+        <v>0</v>
+      </c>
+      <c r="U18" s="32">
+        <v>0</v>
+      </c>
+      <c r="V18" s="29">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
@@ -3339,7 +3294,7 @@
       <c r="T36" s="15">
         <v>0</v>
       </c>
-      <c r="U36" s="61">
+      <c r="U36" s="10">
         <v>0</v>
       </c>
       <c r="V36" s="36">
@@ -4198,66 +4153,66 @@
         <v>5160</v>
       </c>
     </row>
-    <row r="51" spans="2:24" s="66" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="58">
+    <row r="51" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="26">
         <v>46</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="60">
+      <c r="D51" s="23">
         <v>45273</v>
       </c>
-      <c r="E51" s="60">
+      <c r="E51" s="23">
         <v>45273</v>
       </c>
-      <c r="F51" s="59" t="s">
+      <c r="F51" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="59" t="s">
+      <c r="G51" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="61">
+      <c r="H51" s="10">
         <v>31306</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="10">
         <v>31361</v>
       </c>
-      <c r="J51" s="62">
+      <c r="J51" s="15">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="K51" s="63" t="s">
+      <c r="K51" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L51" s="64" t="s">
+      <c r="L51" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M51" s="61" t="s">
+      <c r="M51" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N51" s="62" t="s">
+      <c r="N51" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62" t="s">
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="S51" s="62">
+      <c r="S51" s="15">
         <f>1800+(15*18)</f>
         <v>2070</v>
       </c>
-      <c r="T51" s="62">
-        <v>0</v>
-      </c>
-      <c r="U51" s="61">
-        <v>0</v>
-      </c>
-      <c r="V51" s="65">
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="10">
+        <v>0</v>
+      </c>
+      <c r="V51" s="36">
         <f t="shared" si="2"/>
         <v>2070</v>
       </c>
@@ -4292,17 +4247,17 @@
         <v>75</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="L52" s="17" t="s">
         <v>40</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="15" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="P52" s="15"/>
       <c r="Q52" s="15" t="s">
@@ -4312,8 +4267,8 @@
         <v>51</v>
       </c>
       <c r="S52" s="15">
-        <f>3200+(3*320)</f>
-        <v>4160</v>
+        <f>3200+(2*320)</f>
+        <v>3840</v>
       </c>
       <c r="T52" s="15">
         <v>0</v>
@@ -4323,7 +4278,7 @@
       </c>
       <c r="V52" s="36">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -4395,7 +4350,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="23">
         <v>45273</v>
@@ -4420,7 +4375,7 @@
         <v>64</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L54" s="17" t="s">
         <v>25</v>
@@ -4429,7 +4384,7 @@
         <v>49</v>
       </c>
       <c r="N54" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O54" s="15"/>
       <c r="P54" s="15" t="s">
@@ -4459,7 +4414,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" s="23">
         <v>45274</v>
@@ -4523,7 +4478,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D56" s="23">
         <v>45273</v>
@@ -4535,7 +4490,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H56" s="10">
         <v>136606</v>
@@ -4582,7 +4537,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D57" s="23">
         <v>45274</v>
@@ -4594,7 +4549,7 @@
         <v>23</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H57" s="10">
         <v>99700</v>
@@ -4646,7 +4601,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58" s="23">
         <v>45275</v>
@@ -4658,7 +4613,7 @@
         <v>23</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H58" s="10">
         <v>99785</v>
@@ -4674,7 +4629,7 @@
         <v>47</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M58" s="10" t="s">
         <v>109</v>
@@ -4762,7 +4717,7 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
@@ -4773,7 +4728,7 @@
       <c r="R61" s="4"/>
       <c r="S61" s="25">
         <f>SUM(S26:S60)</f>
-        <v>111019</v>
+        <v>110699</v>
       </c>
       <c r="T61" s="49" t="s">
         <v>14</v>
@@ -4781,7 +4736,7 @@
       <c r="U61" s="49"/>
       <c r="V61" s="5">
         <f>SUM(V6:V60)</f>
-        <v>168186</v>
+        <v>167866</v>
       </c>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
